--- a/Traceability Record/WEB/(W) test TR .xlsx
+++ b/Traceability Record/WEB/(W) test TR .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UTC-URS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -251,6 +251,42 @@
   </si>
   <si>
     <t>W-UTC-20</t>
+  </si>
+  <si>
+    <t>W-STC-20</t>
+  </si>
+  <si>
+    <t>W-STC-21</t>
+  </si>
+  <si>
+    <t>W-STC-22</t>
+  </si>
+  <si>
+    <t>W-STC-23</t>
+  </si>
+  <si>
+    <t>W-STC-24</t>
+  </si>
+  <si>
+    <t>W-STC-25</t>
+  </si>
+  <si>
+    <t>W-STC-26</t>
+  </si>
+  <si>
+    <t>W-STC-27</t>
+  </si>
+  <si>
+    <t>W-STC-28</t>
+  </si>
+  <si>
+    <t>W-STC-29</t>
+  </si>
+  <si>
+    <t>W-STC-30</t>
+  </si>
+  <si>
+    <t>W-STC-31</t>
   </si>
 </sst>
 </file>
@@ -744,7 +780,7 @@
   </sheetPr>
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
@@ -4590,7 +4626,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="84" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -4606,8 +4641,8 @@
   </sheetPr>
   <dimension ref="A1:AT82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AG32" sqref="AG32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4722,12 +4757,8 @@
       <c r="AI1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
@@ -5726,6 +5757,12 @@
       <c r="AT20" s="5"/>
     </row>
     <row r="21" spans="1:46">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -5745,7 +5782,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="V21" s="6"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
@@ -5772,6 +5809,12 @@
       <c r="AT21" s="5"/>
     </row>
     <row r="22" spans="1:46">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -5792,7 +5835,7 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
+      <c r="W22" s="6"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
@@ -5818,6 +5861,12 @@
       <c r="AT22" s="5"/>
     </row>
     <row r="23" spans="1:46">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -5839,7 +5888,7 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
+      <c r="X23" s="6"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
@@ -5864,6 +5913,12 @@
       <c r="AT23" s="5"/>
     </row>
     <row r="24" spans="1:46">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -5886,7 +5941,7 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
+      <c r="Y24" s="6"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
@@ -5910,6 +5965,12 @@
       <c r="AT24" s="5"/>
     </row>
     <row r="25" spans="1:46">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -5933,7 +5994,7 @@
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
+      <c r="Z25" s="6"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -5956,6 +6017,12 @@
       <c r="AT25" s="5"/>
     </row>
     <row r="26" spans="1:46">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -5980,7 +6047,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
+      <c r="AA26" s="6"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -6002,6 +6069,12 @@
       <c r="AT26" s="5"/>
     </row>
     <row r="27" spans="1:46">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -6027,7 +6100,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
+      <c r="AB27" s="6"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
@@ -6048,6 +6121,12 @@
       <c r="AT27" s="5"/>
     </row>
     <row r="28" spans="1:46">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -6074,7 +6153,7 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
+      <c r="AC28" s="6"/>
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
@@ -6094,6 +6173,12 @@
       <c r="AT28" s="5"/>
     </row>
     <row r="29" spans="1:46">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -6121,7 +6206,7 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
+      <c r="AD29" s="6"/>
       <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
       <c r="AG29" s="4"/>
@@ -6140,6 +6225,12 @@
       <c r="AT29" s="5"/>
     </row>
     <row r="30" spans="1:46">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -6168,7 +6259,7 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
+      <c r="AE30" s="6"/>
       <c r="AF30" s="4"/>
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
@@ -6186,6 +6277,12 @@
       <c r="AT30" s="5"/>
     </row>
     <row r="31" spans="1:46">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -6215,7 +6312,7 @@
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
+      <c r="AF31" s="6"/>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
       <c r="AI31" s="4"/>
@@ -6232,6 +6329,12 @@
       <c r="AT31" s="5"/>
     </row>
     <row r="32" spans="1:46">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -6262,7 +6365,7 @@
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
+      <c r="AG32" s="6"/>
       <c r="AH32" s="4"/>
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
@@ -8484,6 +8587,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/Traceability Record/WEB/(W) test TR .xlsx
+++ b/Traceability Record/WEB/(W) test TR .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="UTC-URS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="117">
   <si>
     <t>No</t>
   </si>
@@ -287,6 +287,90 @@
   </si>
   <si>
     <t>W-STC-31</t>
+  </si>
+  <si>
+    <t>W-URS-36</t>
+  </si>
+  <si>
+    <t>W-URS-37</t>
+  </si>
+  <si>
+    <t>W-URS-38</t>
+  </si>
+  <si>
+    <t>W-STC-32</t>
+  </si>
+  <si>
+    <t>W-STC-33</t>
+  </si>
+  <si>
+    <t>W-STC-34</t>
+  </si>
+  <si>
+    <t>W-STC-35</t>
+  </si>
+  <si>
+    <t>W-STC-36</t>
+  </si>
+  <si>
+    <t>W-UTC-21</t>
+  </si>
+  <si>
+    <t>W-UTC-22</t>
+  </si>
+  <si>
+    <t>W-UTC-23</t>
+  </si>
+  <si>
+    <t>W-UTC-24</t>
+  </si>
+  <si>
+    <t>W-UTC-25</t>
+  </si>
+  <si>
+    <t>W-UTC-26</t>
+  </si>
+  <si>
+    <t>W-UTC-27</t>
+  </si>
+  <si>
+    <t>W-UTC-28</t>
+  </si>
+  <si>
+    <t>W-UTC-29</t>
+  </si>
+  <si>
+    <t>W-UTC-30</t>
+  </si>
+  <si>
+    <t>W-UTC-31</t>
+  </si>
+  <si>
+    <t>W-UTC-32</t>
+  </si>
+  <si>
+    <t>W-UTC-33</t>
+  </si>
+  <si>
+    <t>W-UTC-34</t>
+  </si>
+  <si>
+    <t>W-UTC-35</t>
+  </si>
+  <si>
+    <t>W-UTC-36</t>
+  </si>
+  <si>
+    <t>W-UTC-37</t>
+  </si>
+  <si>
+    <t>W-UTC-38</t>
+  </si>
+  <si>
+    <t>W-UTC-39</t>
+  </si>
+  <si>
+    <t>W-UTC-40</t>
   </si>
 </sst>
 </file>
@@ -780,8 +864,8 @@
   </sheetPr>
   <dimension ref="A1:AS82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="AP44" sqref="AP44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -902,9 +986,15 @@
       <c r="AK1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
+      <c r="AL1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
@@ -1932,6 +2022,12 @@
       <c r="AS21" s="1"/>
     </row>
     <row r="22" spans="1:45">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1951,7 +2047,7 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
+      <c r="V22" s="6"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
@@ -1977,6 +2073,12 @@
       <c r="AS22" s="1"/>
     </row>
     <row r="23" spans="1:45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1996,7 +2098,7 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
+      <c r="V23" s="6"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
@@ -2022,6 +2124,12 @@
       <c r="AS23" s="1"/>
     </row>
     <row r="24" spans="1:45">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2042,7 +2150,7 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
+      <c r="W24" s="6"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -2067,6 +2175,12 @@
       <c r="AS24" s="1"/>
     </row>
     <row r="25" spans="1:45">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2087,7 +2201,7 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
+      <c r="W25" s="6"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -2112,6 +2226,12 @@
       <c r="AS25" s="1"/>
     </row>
     <row r="26" spans="1:45">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2133,7 +2253,7 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
+      <c r="X26" s="6"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
@@ -2157,6 +2277,12 @@
       <c r="AS26" s="1"/>
     </row>
     <row r="27" spans="1:45">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2178,7 +2304,7 @@
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
+      <c r="X27" s="6"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
@@ -2202,6 +2328,12 @@
       <c r="AS27" s="1"/>
     </row>
     <row r="28" spans="1:45">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2224,7 +2356,7 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
+      <c r="Y28" s="6"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="1"/>
@@ -2247,6 +2379,12 @@
       <c r="AS28" s="1"/>
     </row>
     <row r="29" spans="1:45">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -2270,7 +2408,7 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
+      <c r="Z29" s="6"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
@@ -2292,6 +2430,12 @@
       <c r="AS29" s="1"/>
     </row>
     <row r="30" spans="1:45">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2324,9 +2468,9 @@
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
@@ -2337,6 +2481,12 @@
       <c r="AS30" s="1"/>
     </row>
     <row r="31" spans="1:45">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2369,9 +2519,9 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
@@ -2382,6 +2532,12 @@
       <c r="AS31" s="1"/>
     </row>
     <row r="32" spans="1:45">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2426,7 +2582,13 @@
       <c r="AR32" s="1"/>
       <c r="AS32" s="1"/>
     </row>
-    <row r="33" spans="3:45">
+    <row r="33" spans="1:45">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2451,7 +2613,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
+      <c r="AA33" s="6"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
@@ -2471,7 +2633,13 @@
       <c r="AR33" s="1"/>
       <c r="AS33" s="1"/>
     </row>
-    <row r="34" spans="3:45">
+    <row r="34" spans="1:45">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2497,7 +2665,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
-      <c r="AB34" s="1"/>
+      <c r="AB34" s="6"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -2516,7 +2684,13 @@
       <c r="AR34" s="1"/>
       <c r="AS34" s="1"/>
     </row>
-    <row r="35" spans="3:45">
+    <row r="35" spans="1:45">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2543,7 +2717,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
+      <c r="AC35" s="6"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
@@ -2561,7 +2735,13 @@
       <c r="AR35" s="1"/>
       <c r="AS35" s="1"/>
     </row>
-    <row r="36" spans="3:45">
+    <row r="36" spans="1:45">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2589,7 +2769,7 @@
       <c r="AA36" s="4"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
+      <c r="AD36" s="6"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1"/>
@@ -2606,7 +2786,13 @@
       <c r="AR36" s="1"/>
       <c r="AS36" s="1"/>
     </row>
-    <row r="37" spans="3:45">
+    <row r="37" spans="1:45">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2635,7 +2821,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
+      <c r="AE37" s="6"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
@@ -2651,7 +2837,13 @@
       <c r="AR37" s="1"/>
       <c r="AS37" s="1"/>
     </row>
-    <row r="38" spans="3:45">
+    <row r="38" spans="1:45">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2681,7 +2873,7 @@
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
+      <c r="AF38" s="6"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
@@ -2696,7 +2888,13 @@
       <c r="AR38" s="1"/>
       <c r="AS38" s="1"/>
     </row>
-    <row r="39" spans="3:45">
+    <row r="39" spans="1:45">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2727,7 +2925,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="1"/>
+      <c r="AG39" s="6"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -2741,7 +2939,13 @@
       <c r="AR39" s="1"/>
       <c r="AS39" s="1"/>
     </row>
-    <row r="40" spans="3:45">
+    <row r="40" spans="1:45">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2773,7 +2977,7 @@
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
+      <c r="AH40" s="6"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -2786,7 +2990,13 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
     </row>
-    <row r="41" spans="3:45">
+    <row r="41" spans="1:45">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2822,7 +3032,7 @@
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
+      <c r="AL41" s="6"/>
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
@@ -2831,7 +3041,7 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
     </row>
-    <row r="42" spans="3:45">
+    <row r="42" spans="1:45">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2876,7 +3086,7 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
     </row>
-    <row r="43" spans="3:45">
+    <row r="43" spans="1:45">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2921,7 +3131,7 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
     </row>
-    <row r="44" spans="3:45">
+    <row r="44" spans="1:45">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2966,7 +3176,7 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
     </row>
-    <row r="45" spans="3:45">
+    <row r="45" spans="1:45">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3011,7 +3221,7 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
     </row>
-    <row r="46" spans="3:45">
+    <row r="46" spans="1:45">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3056,7 +3266,7 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
     </row>
-    <row r="47" spans="3:45">
+    <row r="47" spans="1:45">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3101,7 +3311,7 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
     </row>
-    <row r="48" spans="3:45">
+    <row r="48" spans="1:45">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4641,8 +4851,8 @@
   </sheetPr>
   <dimension ref="A1:AT82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AG32" sqref="AG32"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="AI38" sqref="AI38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4757,11 +4967,21 @@
       <c r="AI1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
+      <c r="AJ1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="AO1" s="2"/>
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
@@ -6380,7 +6600,13 @@
       <c r="AS32" s="4"/>
       <c r="AT32" s="5"/>
     </row>
-    <row r="33" spans="3:46">
+    <row r="33" spans="1:46">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -6412,7 +6638,7 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
+      <c r="AH33" s="6"/>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
@@ -6426,7 +6652,13 @@
       <c r="AS33" s="4"/>
       <c r="AT33" s="5"/>
     </row>
-    <row r="34" spans="3:46">
+    <row r="34" spans="1:46">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -6459,7 +6691,7 @@
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
       <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
+      <c r="AI34" s="6"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
@@ -6472,7 +6704,13 @@
       <c r="AS34" s="4"/>
       <c r="AT34" s="5"/>
     </row>
-    <row r="35" spans="3:46">
+    <row r="35" spans="1:46">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -6506,7 +6744,7 @@
       <c r="AG35" s="4"/>
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
+      <c r="AJ35" s="6"/>
       <c r="AK35" s="4"/>
       <c r="AL35" s="4"/>
       <c r="AM35" s="4"/>
@@ -6518,7 +6756,13 @@
       <c r="AS35" s="4"/>
       <c r="AT35" s="5"/>
     </row>
-    <row r="36" spans="3:46">
+    <row r="36" spans="1:46">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -6553,7 +6797,7 @@
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
+      <c r="AK36" s="6"/>
       <c r="AL36" s="4"/>
       <c r="AM36" s="4"/>
       <c r="AN36" s="4"/>
@@ -6564,7 +6808,13 @@
       <c r="AS36" s="4"/>
       <c r="AT36" s="5"/>
     </row>
-    <row r="37" spans="3:46">
+    <row r="37" spans="1:46">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -6600,7 +6850,7 @@
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
       <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
+      <c r="AL37" s="6"/>
       <c r="AM37" s="4"/>
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
@@ -6610,7 +6860,7 @@
       <c r="AS37" s="4"/>
       <c r="AT37" s="5"/>
     </row>
-    <row r="38" spans="3:46">
+    <row r="38" spans="1:46">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -6656,7 +6906,7 @@
       <c r="AS38" s="4"/>
       <c r="AT38" s="5"/>
     </row>
-    <row r="39" spans="3:46">
+    <row r="39" spans="1:46">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -6702,7 +6952,7 @@
       <c r="AS39" s="4"/>
       <c r="AT39" s="5"/>
     </row>
-    <row r="40" spans="3:46">
+    <row r="40" spans="1:46">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -6747,7 +6997,7 @@
       <c r="AR40" s="1"/>
       <c r="AS40" s="1"/>
     </row>
-    <row r="41" spans="3:46">
+    <row r="41" spans="1:46">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -6792,7 +7042,7 @@
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
     </row>
-    <row r="42" spans="3:46">
+    <row r="42" spans="1:46">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -6837,7 +7087,7 @@
       <c r="AR42" s="1"/>
       <c r="AS42" s="1"/>
     </row>
-    <row r="43" spans="3:46">
+    <row r="43" spans="1:46">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6882,7 +7132,7 @@
       <c r="AR43" s="1"/>
       <c r="AS43" s="1"/>
     </row>
-    <row r="44" spans="3:46">
+    <row r="44" spans="1:46">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -6927,7 +7177,7 @@
       <c r="AR44" s="1"/>
       <c r="AS44" s="1"/>
     </row>
-    <row r="45" spans="3:46">
+    <row r="45" spans="1:46">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -6972,7 +7222,7 @@
       <c r="AR45" s="1"/>
       <c r="AS45" s="1"/>
     </row>
-    <row r="46" spans="3:46">
+    <row r="46" spans="1:46">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -7017,7 +7267,7 @@
       <c r="AR46" s="1"/>
       <c r="AS46" s="1"/>
     </row>
-    <row r="47" spans="3:46">
+    <row r="47" spans="1:46">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -7062,7 +7312,7 @@
       <c r="AR47" s="1"/>
       <c r="AS47" s="1"/>
     </row>
-    <row r="48" spans="3:46">
+    <row r="48" spans="1:46">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -8587,7 +8837,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
